--- a/GUM_characteristics_frequency_table.xlsx
+++ b/GUM_characteristics_frequency_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zziyue/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zziyue/Desktop/Research/Merger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B172A1-9855-6543-B108-C1959B889DBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2084BE1A-232C-C64A-A629-B74A3310EAA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="form_frequency_table" sheetId="1" r:id="rId1"/>
@@ -2338,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F917BA40-D34A-2E4A-AED3-8B210B4C493D}">
   <dimension ref="A1:B289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2355,7 +2355,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="4" customFormat="1">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>434037</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="4" customFormat="1">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>370051</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="4" customFormat="1">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>280906</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="4" customFormat="1">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>242368</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="4" customFormat="1">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>187025</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="4" customFormat="1">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>89027</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="4" customFormat="1">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>88931</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="4" customFormat="1">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>80539</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="4" customFormat="1">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>65739</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="4" customFormat="1">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>59</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>51638</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="4" customFormat="1">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>50159</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="4" customFormat="1">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>58</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>48377</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="4" customFormat="1">
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>48034</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="4" customFormat="1">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>56</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="4" customFormat="1">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>73</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>38490</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="4" customFormat="1">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>63</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>34919</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="4" customFormat="1">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>61</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>33427</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="4" customFormat="1">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>64</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>32340</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="4" customFormat="1">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>31404</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="4" customFormat="1">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>79</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>27347</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="4" customFormat="1">
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>72</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>27205</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="4" customFormat="1">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>99</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>27186</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="4" customFormat="1">
+    <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>25378</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="4" customFormat="1">
+    <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
         <v>83</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>25228</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="4" customFormat="1">
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>60</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>24614</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="4" customFormat="1">
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>69</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>24593</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="4" customFormat="1">
+    <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
         <v>169</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>23327</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="4" customFormat="1">
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>68</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>21681</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="4" customFormat="1">
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
         <v>76</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>21434</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="4" customFormat="1">
+    <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
         <v>74</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>21047</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="4" customFormat="1">
+    <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
         <v>77</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>20060</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="4" customFormat="1">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>88</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>19840</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="4" customFormat="1">
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>81</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>17801</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="4" customFormat="1">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>91</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>17599</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="4" customFormat="1">
+    <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>17</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>17519</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="4" customFormat="1">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>261</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>17390</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="4" customFormat="1">
+    <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>65</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>16017</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="4" customFormat="1">
+    <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
         <v>166</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>15775</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="4" customFormat="1">
+    <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
         <v>67</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>15737</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="4" customFormat="1">
+    <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>187</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>15103</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="4" customFormat="1">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>186</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>14560</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="4" customFormat="1">
+    <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
         <v>78</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>14502</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="4" customFormat="1">
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
         <v>167</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="4" customFormat="1">
+    <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
         <v>98</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>14390</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="4" customFormat="1">
+    <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
         <v>234</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>14179</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="4" customFormat="1">
+    <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
         <v>105</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>14160</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="4" customFormat="1">
+    <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
         <v>237</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>13993</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="4" customFormat="1">
+    <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
         <v>232</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="4" customFormat="1">
+    <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
         <v>233</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>13575</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="4" customFormat="1">
+    <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
         <v>80</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>13071</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="4" customFormat="1">
+    <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
         <v>279</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>13007</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="4" customFormat="1">
+    <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
         <v>104</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>12968</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="4" customFormat="1">
+    <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
         <v>231</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>12931</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="4" customFormat="1">
+    <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
         <v>249</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>12508</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="4" customFormat="1">
+    <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
         <v>103</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>12060</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="4" customFormat="1">
+    <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
         <v>247</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>11209</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="4" customFormat="1">
+    <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
         <v>109</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>11096</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="4" customFormat="1">
+    <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
         <v>246</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>10980</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="4" customFormat="1">
+    <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
         <v>280</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>10973</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="4" customFormat="1">
+    <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
         <v>257</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>10744</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="4" customFormat="1">
+    <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
         <v>95</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>10504</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="4" customFormat="1">
+    <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
         <v>96</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>10428</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="4" customFormat="1">
+    <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
         <v>142</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>10412</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="4" customFormat="1">
+    <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
         <v>97</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>10387</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="4" customFormat="1">
+    <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>10179</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="4" customFormat="1">
+    <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
         <v>238</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>10173</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="4" customFormat="1">
+    <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
         <v>255</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>9992</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="4" customFormat="1">
+    <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
         <v>102</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>9915</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="4" customFormat="1">
+    <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
         <v>230</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>9643</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="4" customFormat="1">
+    <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
         <v>157</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>9489</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="4" customFormat="1">
+    <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
         <v>101</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>9416</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="4" customFormat="1">
+    <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
         <v>114</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>9402</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="4" customFormat="1">
+    <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
         <v>111</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>9360</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="4" customFormat="1">
+    <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
         <v>235</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>9307</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="4" customFormat="1">
+    <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
         <v>82</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>9284</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="4" customFormat="1">
+    <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
         <v>106</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>9238</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="4" customFormat="1">
+    <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
         <v>156</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>9192</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="4" customFormat="1">
+    <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
         <v>71</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>9055</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="4" customFormat="1">
+    <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
         <v>236</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>8929</v>
       </c>
     </row>
-    <row r="81" spans="1:2" s="4" customFormat="1">
+    <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
         <v>289</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>8568</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="4" customFormat="1">
+    <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
         <v>165</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>8486</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="4" customFormat="1">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>229</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>8385</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="4" customFormat="1">
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>154</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>8383</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="4" customFormat="1">
+    <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
         <v>85</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>8314</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="4" customFormat="1">
+    <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
         <v>287</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>8301</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="4" customFormat="1">
+    <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
         <v>70</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>8296</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="4" customFormat="1">
+    <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
         <v>286</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="4" customFormat="1">
+    <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
         <v>288</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>8142</v>
       </c>
     </row>
-    <row r="90" spans="1:2" s="4" customFormat="1">
+    <row r="90" spans="1:2">
       <c r="A90" s="4" t="s">
         <v>282</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>8127</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="4" customFormat="1">
+    <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
         <v>283</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>7934</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="4" customFormat="1">
+    <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
         <v>203</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>7884</v>
       </c>
     </row>
-    <row r="93" spans="1:2" s="4" customFormat="1">
+    <row r="93" spans="1:2">
       <c r="A93" s="4" t="s">
         <v>121</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>7846</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="4" customFormat="1">
+    <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
         <v>285</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>7839</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="4" customFormat="1">
+    <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
         <v>281</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>7818</v>
       </c>
     </row>
-    <row r="96" spans="1:2" s="4" customFormat="1">
+    <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
         <v>93</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>7770</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="4" customFormat="1">
+    <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
         <v>136</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>7766</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="4" customFormat="1">
+    <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
         <v>92</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>7645</v>
       </c>
     </row>
-    <row r="99" spans="1:2" s="4" customFormat="1">
+    <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
         <v>304</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>7610</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="4" customFormat="1">
+    <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
         <v>284</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>7540</v>
       </c>
     </row>
-    <row r="101" spans="1:2" s="4" customFormat="1">
+    <row r="101" spans="1:2">
       <c r="A101" s="4" t="s">
         <v>172</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>7443</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="4" customFormat="1">
+    <row r="102" spans="1:2">
       <c r="A102" s="4" t="s">
         <v>84</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>7427</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="4" customFormat="1">
+    <row r="103" spans="1:2">
       <c r="A103" s="4" t="s">
         <v>277</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>7390</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="4" customFormat="1">
+    <row r="104" spans="1:2">
       <c r="A104" s="4" t="s">
         <v>302</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>7276</v>
       </c>
     </row>
-    <row r="105" spans="1:2" s="4" customFormat="1">
+    <row r="105" spans="1:2">
       <c r="A105" s="4" t="s">
         <v>126</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>7206</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="4" customFormat="1">
+    <row r="106" spans="1:2">
       <c r="A106" s="4" t="s">
         <v>291</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>7182</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="4" customFormat="1">
+    <row r="107" spans="1:2">
       <c r="A107" s="4" t="s">
         <v>112</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>7118</v>
       </c>
     </row>
-    <row r="108" spans="1:2" s="4" customFormat="1">
+    <row r="108" spans="1:2">
       <c r="A108" s="4" t="s">
         <v>194</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="109" spans="1:2" s="4" customFormat="1">
+    <row r="109" spans="1:2">
       <c r="A109" s="4" t="s">
         <v>273</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>7085</v>
       </c>
     </row>
-    <row r="110" spans="1:2" s="4" customFormat="1">
+    <row r="110" spans="1:2">
       <c r="A110" s="4" t="s">
         <v>94</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>7056</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="4" customFormat="1">
+    <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
         <v>110</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>6908</v>
       </c>
     </row>
-    <row r="112" spans="1:2" s="4" customFormat="1">
+    <row r="112" spans="1:2">
       <c r="A112" s="4" t="s">
         <v>240</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>6807</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="4" customFormat="1">
+    <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
         <v>242</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>6768</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="4" customFormat="1">
+    <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
         <v>86</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>6677</v>
       </c>
     </row>
-    <row r="115" spans="1:2" s="4" customFormat="1">
+    <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
         <v>252</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>6581</v>
       </c>
     </row>
-    <row r="116" spans="1:2" s="4" customFormat="1">
+    <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
         <v>295</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>6472</v>
       </c>
     </row>
-    <row r="117" spans="1:2" s="4" customFormat="1">
+    <row r="117" spans="1:2">
       <c r="A117" s="4" t="s">
         <v>89</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>6338</v>
       </c>
     </row>
-    <row r="118" spans="1:2" s="4" customFormat="1">
+    <row r="118" spans="1:2">
       <c r="A118" s="4" t="s">
         <v>245</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>6328</v>
       </c>
     </row>
-    <row r="119" spans="1:2" s="4" customFormat="1">
+    <row r="119" spans="1:2">
       <c r="A119" s="4" t="s">
         <v>292</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>6284</v>
       </c>
     </row>
-    <row r="120" spans="1:2" s="4" customFormat="1">
+    <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
         <v>243</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>6263</v>
       </c>
     </row>
-    <row r="121" spans="1:2" s="4" customFormat="1">
+    <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
         <v>87</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="122" spans="1:2" s="4" customFormat="1">
+    <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
         <v>296</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>6096</v>
       </c>
     </row>
-    <row r="123" spans="1:2" s="4" customFormat="1">
+    <row r="123" spans="1:2">
       <c r="A123" s="4" t="s">
         <v>90</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>5959</v>
       </c>
     </row>
-    <row r="124" spans="1:2" s="4" customFormat="1">
+    <row r="124" spans="1:2">
       <c r="A124" s="4" t="s">
         <v>301</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>5942</v>
       </c>
     </row>
-    <row r="125" spans="1:2" s="4" customFormat="1">
+    <row r="125" spans="1:2">
       <c r="A125" s="4" t="s">
         <v>160</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>5396</v>
       </c>
     </row>
-    <row r="126" spans="1:2" s="4" customFormat="1">
+    <row r="126" spans="1:2">
       <c r="A126" s="4" t="s">
         <v>108</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>5393</v>
       </c>
     </row>
-    <row r="127" spans="1:2" s="4" customFormat="1">
+    <row r="127" spans="1:2">
       <c r="A127" s="4" t="s">
         <v>127</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>5375</v>
       </c>
     </row>
-    <row r="128" spans="1:2" s="4" customFormat="1">
+    <row r="128" spans="1:2">
       <c r="A128" s="4" t="s">
         <v>241</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>5351</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="4" customFormat="1">
+    <row r="129" spans="1:2">
       <c r="A129" s="4" t="s">
         <v>262</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>5336</v>
       </c>
     </row>
-    <row r="130" spans="1:2" s="4" customFormat="1">
+    <row r="130" spans="1:2">
       <c r="A130" s="4" t="s">
         <v>129</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>5285</v>
       </c>
     </row>
-    <row r="131" spans="1:2" s="4" customFormat="1">
+    <row r="131" spans="1:2">
       <c r="A131" s="4" t="s">
         <v>303</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>5209</v>
       </c>
     </row>
-    <row r="132" spans="1:2" s="4" customFormat="1">
+    <row r="132" spans="1:2">
       <c r="A132" s="4" t="s">
         <v>128</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>5091</v>
       </c>
     </row>
-    <row r="133" spans="1:2" s="4" customFormat="1">
+    <row r="133" spans="1:2">
       <c r="A133" s="4" t="s">
         <v>113</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>4969</v>
       </c>
     </row>
-    <row r="134" spans="1:2" s="4" customFormat="1">
+    <row r="134" spans="1:2">
       <c r="A134" s="4" t="s">
         <v>306</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>4912</v>
       </c>
     </row>
-    <row r="135" spans="1:2" s="4" customFormat="1">
+    <row r="135" spans="1:2">
       <c r="A135" s="4" t="s">
         <v>100</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="136" spans="1:2" s="4" customFormat="1">
+    <row r="136" spans="1:2">
       <c r="A136" s="4" t="s">
         <v>239</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>4756</v>
       </c>
     </row>
-    <row r="137" spans="1:2" s="4" customFormat="1">
+    <row r="137" spans="1:2">
       <c r="A137" s="4" t="s">
         <v>115</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>4726</v>
       </c>
     </row>
-    <row r="138" spans="1:2" s="4" customFormat="1">
+    <row r="138" spans="1:2">
       <c r="A138" s="4" t="s">
         <v>298</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>4669</v>
       </c>
     </row>
-    <row r="139" spans="1:2" s="4" customFormat="1">
+    <row r="139" spans="1:2">
       <c r="A139" s="4" t="s">
         <v>107</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>4524</v>
       </c>
     </row>
-    <row r="140" spans="1:2" s="4" customFormat="1">
+    <row r="140" spans="1:2">
       <c r="A140" s="4" t="s">
         <v>299</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>4453</v>
       </c>
     </row>
-    <row r="141" spans="1:2" s="4" customFormat="1">
+    <row r="141" spans="1:2">
       <c r="A141" s="4" t="s">
         <v>290</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="142" spans="1:2" s="4" customFormat="1">
+    <row r="142" spans="1:2">
       <c r="A142" s="4" t="s">
         <v>134</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>4391</v>
       </c>
     </row>
-    <row r="143" spans="1:2" s="4" customFormat="1">
+    <row r="143" spans="1:2">
       <c r="A143" s="4" t="s">
         <v>309</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="144" spans="1:2" s="4" customFormat="1">
+    <row r="144" spans="1:2">
       <c r="A144" s="4" t="s">
         <v>310</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>4325</v>
       </c>
     </row>
-    <row r="145" spans="1:2" s="4" customFormat="1">
+    <row r="145" spans="1:2">
       <c r="A145" s="4" t="s">
         <v>311</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="146" spans="1:2" s="4" customFormat="1">
+    <row r="146" spans="1:2">
       <c r="A146" s="4" t="s">
         <v>312</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="147" spans="1:2" s="4" customFormat="1">
+    <row r="147" spans="1:2">
       <c r="A147" s="4" t="s">
         <v>313</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="148" spans="1:2" s="4" customFormat="1">
+    <row r="148" spans="1:2">
       <c r="A148" s="4" t="s">
         <v>248</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="149" spans="1:2" s="4" customFormat="1">
+    <row r="149" spans="1:2">
       <c r="A149" s="4" t="s">
         <v>294</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="150" spans="1:2" s="4" customFormat="1">
+    <row r="150" spans="1:2">
       <c r="A150" s="4" t="s">
         <v>314</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>3689</v>
       </c>
     </row>
-    <row r="151" spans="1:2" s="4" customFormat="1">
+    <row r="151" spans="1:2">
       <c r="A151" s="4" t="s">
         <v>293</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="152" spans="1:2" s="4" customFormat="1">
+    <row r="152" spans="1:2">
       <c r="A152" s="4" t="s">
         <v>117</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>3546</v>
       </c>
     </row>
-    <row r="153" spans="1:2" s="4" customFormat="1">
+    <row r="153" spans="1:2">
       <c r="A153" s="4" t="s">
         <v>315</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="154" spans="1:2" s="4" customFormat="1">
+    <row r="154" spans="1:2">
       <c r="A154" s="4" t="s">
         <v>188</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>3407</v>
       </c>
     </row>
-    <row r="155" spans="1:2" s="4" customFormat="1">
+    <row r="155" spans="1:2">
       <c r="A155" s="4" t="s">
         <v>316</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="156" spans="1:2" s="4" customFormat="1">
+    <row r="156" spans="1:2">
       <c r="A156" s="4" t="s">
         <v>119</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>3355</v>
       </c>
     </row>
-    <row r="157" spans="1:2" s="4" customFormat="1">
+    <row r="157" spans="1:2">
       <c r="A157" s="4" t="s">
         <v>258</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>3337</v>
       </c>
     </row>
-    <row r="158" spans="1:2" s="4" customFormat="1">
+    <row r="158" spans="1:2">
       <c r="A158" s="4" t="s">
         <v>317</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="159" spans="1:2" s="4" customFormat="1">
+    <row r="159" spans="1:2">
       <c r="A159" s="4" t="s">
         <v>116</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="160" spans="1:2" s="4" customFormat="1">
+    <row r="160" spans="1:2">
       <c r="A160" s="4" t="s">
         <v>133</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="161" spans="1:2" s="4" customFormat="1">
+    <row r="161" spans="1:2">
       <c r="A161" s="4" t="s">
         <v>244</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="162" spans="1:2" s="4" customFormat="1">
+    <row r="162" spans="1:2">
       <c r="A162" s="4" t="s">
         <v>318</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="163" spans="1:2" s="4" customFormat="1">
+    <row r="163" spans="1:2">
       <c r="A163" s="4" t="s">
         <v>124</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="164" spans="1:2" s="4" customFormat="1">
+    <row r="164" spans="1:2">
       <c r="A164" s="4" t="s">
         <v>308</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="165" spans="1:2" s="4" customFormat="1">
+    <row r="165" spans="1:2">
       <c r="A165" s="4" t="s">
         <v>120</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="166" spans="1:2" s="4" customFormat="1">
+    <row r="166" spans="1:2">
       <c r="A166" s="4" t="s">
         <v>300</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="167" spans="1:2" s="4" customFormat="1">
+    <row r="167" spans="1:2">
       <c r="A167" s="4" t="s">
         <v>192</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="168" spans="1:2" s="4" customFormat="1">
+    <row r="168" spans="1:2">
       <c r="A168" s="4" t="s">
         <v>122</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="169" spans="1:2" s="4" customFormat="1">
+    <row r="169" spans="1:2">
       <c r="A169" s="4" t="s">
         <v>118</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="170" spans="1:2" s="4" customFormat="1">
+    <row r="170" spans="1:2">
       <c r="A170" s="4" t="s">
         <v>148</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="171" spans="1:2" s="4" customFormat="1">
+    <row r="171" spans="1:2">
       <c r="A171" s="4" t="s">
         <v>123</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="172" spans="1:2" s="4" customFormat="1">
+    <row r="172" spans="1:2">
       <c r="A172" s="4" t="s">
         <v>164</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="173" spans="1:2" s="4" customFormat="1">
+    <row r="173" spans="1:2">
       <c r="A173" s="4" t="s">
         <v>153</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="174" spans="1:2" s="4" customFormat="1">
+    <row r="174" spans="1:2">
       <c r="A174" s="4" t="s">
         <v>132</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="175" spans="1:2" s="4" customFormat="1">
+    <row r="175" spans="1:2">
       <c r="A175" s="4" t="s">
         <v>151</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="176" spans="1:2" s="4" customFormat="1">
+    <row r="176" spans="1:2">
       <c r="A176" s="4" t="s">
         <v>125</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="4" customFormat="1">
+    <row r="177" spans="1:2">
       <c r="A177" s="4" t="s">
         <v>250</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="178" spans="1:2" s="4" customFormat="1">
+    <row r="178" spans="1:2">
       <c r="A178" s="4" t="s">
         <v>150</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="179" spans="1:2" s="4" customFormat="1">
+    <row r="179" spans="1:2">
       <c r="A179" s="4" t="s">
         <v>140</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="180" spans="1:2" s="4" customFormat="1">
+    <row r="180" spans="1:2">
       <c r="A180" s="4" t="s">
         <v>259</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="181" spans="1:2" s="4" customFormat="1">
+    <row r="181" spans="1:2">
       <c r="A181" s="4" t="s">
         <v>130</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="182" spans="1:2" s="4" customFormat="1">
+    <row r="182" spans="1:2">
       <c r="A182" s="4" t="s">
         <v>177</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="183" spans="1:2" s="4" customFormat="1">
+    <row r="183" spans="1:2">
       <c r="A183" s="4" t="s">
         <v>147</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="184" spans="1:2" s="4" customFormat="1">
+    <row r="184" spans="1:2">
       <c r="A184" s="4" t="s">
         <v>208</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="185" spans="1:2" s="4" customFormat="1">
+    <row r="185" spans="1:2">
       <c r="A185" s="4" t="s">
         <v>138</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="186" spans="1:2" s="4" customFormat="1">
+    <row r="186" spans="1:2">
       <c r="A186" s="4" t="s">
         <v>146</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="187" spans="1:2" s="4" customFormat="1">
+    <row r="187" spans="1:2">
       <c r="A187" s="4" t="s">
         <v>131</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="188" spans="1:2" s="4" customFormat="1">
+    <row r="188" spans="1:2">
       <c r="A188" s="4" t="s">
         <v>319</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="189" spans="1:2" s="4" customFormat="1">
+    <row r="189" spans="1:2">
       <c r="A189" s="4" t="s">
         <v>297</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="190" spans="1:2" s="4" customFormat="1">
+    <row r="190" spans="1:2">
       <c r="A190" s="4" t="s">
         <v>162</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="191" spans="1:2" s="4" customFormat="1">
+    <row r="191" spans="1:2">
       <c r="A191" s="4" t="s">
         <v>320</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="192" spans="1:2" s="4" customFormat="1">
+    <row r="192" spans="1:2">
       <c r="A192" s="4" t="s">
         <v>321</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="193" spans="1:2" s="4" customFormat="1">
+    <row r="193" spans="1:2">
       <c r="A193" s="4" t="s">
         <v>141</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="194" spans="1:2" s="4" customFormat="1">
+    <row r="194" spans="1:2">
       <c r="A194" s="4" t="s">
         <v>183</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="195" spans="1:2" s="4" customFormat="1">
+    <row r="195" spans="1:2">
       <c r="A195" s="4" t="s">
         <v>322</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="196" spans="1:2" s="4" customFormat="1">
+    <row r="196" spans="1:2">
       <c r="A196" s="4" t="s">
         <v>185</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="197" spans="1:2" s="4" customFormat="1">
+    <row r="197" spans="1:2">
       <c r="A197" s="4" t="s">
         <v>256</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="198" spans="1:2" s="4" customFormat="1">
+    <row r="198" spans="1:2">
       <c r="A198" s="4" t="s">
         <v>145</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="199" spans="1:2" s="4" customFormat="1">
+    <row r="199" spans="1:2">
       <c r="A199" s="4" t="s">
         <v>201</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="200" spans="1:2" s="4" customFormat="1">
+    <row r="200" spans="1:2">
       <c r="A200" s="4" t="s">
         <v>149</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="201" spans="1:2" s="4" customFormat="1">
+    <row r="201" spans="1:2">
       <c r="A201" s="4" t="s">
         <v>144</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="202" spans="1:2" s="4" customFormat="1">
+    <row r="202" spans="1:2">
       <c r="A202" s="4" t="s">
         <v>170</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="203" spans="1:2" s="4" customFormat="1">
+    <row r="203" spans="1:2">
       <c r="A203" s="4" t="s">
         <v>254</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="204" spans="1:2" s="4" customFormat="1">
+    <row r="204" spans="1:2">
       <c r="A204" s="4" t="s">
         <v>168</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="205" spans="1:2" s="4" customFormat="1">
+    <row r="205" spans="1:2">
       <c r="A205" s="4" t="s">
         <v>135</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="206" spans="1:2" s="4" customFormat="1">
+    <row r="206" spans="1:2">
       <c r="A206" s="4" t="s">
         <v>251</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="207" spans="1:2" s="4" customFormat="1">
+    <row r="207" spans="1:2">
       <c r="A207" s="4" t="s">
         <v>253</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="208" spans="1:2" s="4" customFormat="1">
+    <row r="208" spans="1:2">
       <c r="A208" s="4" t="s">
         <v>137</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="209" spans="1:2" s="4" customFormat="1">
+    <row r="209" spans="1:2">
       <c r="A209" s="4" t="s">
         <v>143</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="210" spans="1:2" s="4" customFormat="1">
+    <row r="210" spans="1:2">
       <c r="A210" s="4" t="s">
         <v>139</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="211" spans="1:2" s="4" customFormat="1">
+    <row r="211" spans="1:2">
       <c r="A211" s="4" t="s">
         <v>155</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="212" spans="1:2" s="4" customFormat="1">
+    <row r="212" spans="1:2">
       <c r="A212" s="4" t="s">
         <v>323</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="213" spans="1:2" s="4" customFormat="1">
+    <row r="213" spans="1:2">
       <c r="A213" s="4" t="s">
         <v>163</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="214" spans="1:2" s="4" customFormat="1">
+    <row r="214" spans="1:2">
       <c r="A214" s="4" t="s">
         <v>152</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="215" spans="1:2" s="4" customFormat="1">
+    <row r="215" spans="1:2">
       <c r="A215" s="4" t="s">
         <v>179</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="216" spans="1:2" s="4" customFormat="1">
+    <row r="216" spans="1:2">
       <c r="A216" s="4" t="s">
         <v>182</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="217" spans="1:2" s="4" customFormat="1">
+    <row r="217" spans="1:2">
       <c r="A217" s="4" t="s">
         <v>184</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="218" spans="1:2" s="4" customFormat="1">
+    <row r="218" spans="1:2">
       <c r="A218" s="4" t="s">
         <v>197</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="219" spans="1:2" s="4" customFormat="1">
+    <row r="219" spans="1:2">
       <c r="A219" s="4" t="s">
         <v>218</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="220" spans="1:2" s="4" customFormat="1">
+    <row r="220" spans="1:2">
       <c r="A220" s="4" t="s">
         <v>173</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="221" spans="1:2" s="4" customFormat="1">
+    <row r="221" spans="1:2">
       <c r="A221" s="4" t="s">
         <v>189</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="222" spans="1:2" s="4" customFormat="1">
+    <row r="222" spans="1:2">
       <c r="A222" s="4" t="s">
         <v>158</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="223" spans="1:2" s="4" customFormat="1">
+    <row r="223" spans="1:2">
       <c r="A223" s="4" t="s">
         <v>180</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="224" spans="1:2" s="4" customFormat="1">
+    <row r="224" spans="1:2">
       <c r="A224" s="4" t="s">
         <v>305</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="225" spans="1:2" s="4" customFormat="1">
+    <row r="225" spans="1:2">
       <c r="A225" s="4" t="s">
         <v>161</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="226" spans="1:2" s="4" customFormat="1">
+    <row r="226" spans="1:2">
       <c r="A226" s="4" t="s">
         <v>159</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="227" spans="1:2" s="4" customFormat="1">
+    <row r="227" spans="1:2">
       <c r="A227" s="4" t="s">
         <v>324</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="228" spans="1:2" s="4" customFormat="1">
+    <row r="228" spans="1:2">
       <c r="A228" s="4" t="s">
         <v>174</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="229" spans="1:2" s="4" customFormat="1">
+    <row r="229" spans="1:2">
       <c r="A229" s="4" t="s">
         <v>181</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="230" spans="1:2" s="4" customFormat="1">
+    <row r="230" spans="1:2">
       <c r="A230" s="4" t="s">
         <v>191</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="231" spans="1:2" s="4" customFormat="1">
+    <row r="231" spans="1:2">
       <c r="A231" s="4" t="s">
         <v>171</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="232" spans="1:2" s="4" customFormat="1">
+    <row r="232" spans="1:2">
       <c r="A232" s="4" t="s">
         <v>196</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="233" spans="1:2" s="4" customFormat="1">
+    <row r="233" spans="1:2">
       <c r="A233" s="4" t="s">
         <v>175</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="234" spans="1:2" s="4" customFormat="1">
+    <row r="234" spans="1:2">
       <c r="A234" s="4" t="s">
         <v>199</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="235" spans="1:2" s="4" customFormat="1">
+    <row r="235" spans="1:2">
       <c r="A235" s="4" t="s">
         <v>198</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="236" spans="1:2" s="4" customFormat="1">
+    <row r="236" spans="1:2">
       <c r="A236" s="4" t="s">
         <v>217</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="237" spans="1:2" s="4" customFormat="1">
+    <row r="237" spans="1:2">
       <c r="A237" s="4" t="s">
         <v>176</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="238" spans="1:2" s="4" customFormat="1">
+    <row r="238" spans="1:2">
       <c r="A238" s="4" t="s">
         <v>190</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="239" spans="1:2" s="4" customFormat="1">
+    <row r="239" spans="1:2">
       <c r="A239" s="4" t="s">
         <v>260</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="240" spans="1:2" s="4" customFormat="1">
+    <row r="240" spans="1:2">
       <c r="A240" s="4" t="s">
         <v>204</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="241" spans="1:2" s="4" customFormat="1">
+    <row r="241" spans="1:2">
       <c r="A241" s="4" t="s">
         <v>178</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="242" spans="1:2" s="4" customFormat="1">
+    <row r="242" spans="1:2">
       <c r="A242" s="4" t="s">
         <v>193</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="243" spans="1:2" s="4" customFormat="1">
+    <row r="243" spans="1:2">
       <c r="A243" s="4" t="s">
         <v>202</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="244" spans="1:2" s="4" customFormat="1">
+    <row r="244" spans="1:2">
       <c r="A244" s="4" t="s">
         <v>325</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="245" spans="1:2" s="4" customFormat="1">
+    <row r="245" spans="1:2">
       <c r="A245" s="4" t="s">
         <v>266</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="246" spans="1:2" s="4" customFormat="1">
+    <row r="246" spans="1:2">
       <c r="A246" s="4" t="s">
         <v>205</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="247" spans="1:2" s="4" customFormat="1">
+    <row r="247" spans="1:2">
       <c r="A247" s="4" t="s">
         <v>265</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="248" spans="1:2" s="4" customFormat="1">
+    <row r="248" spans="1:2">
       <c r="A248" s="4" t="s">
         <v>213</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="249" spans="1:2" s="4" customFormat="1">
+    <row r="249" spans="1:2">
       <c r="A249" s="4" t="s">
         <v>267</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="250" spans="1:2" s="4" customFormat="1">
+    <row r="250" spans="1:2">
       <c r="A250" s="4" t="s">
         <v>268</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="251" spans="1:2" s="4" customFormat="1">
+    <row r="251" spans="1:2">
       <c r="A251" s="4" t="s">
         <v>215</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="252" spans="1:2" s="4" customFormat="1">
+    <row r="252" spans="1:2">
       <c r="A252" s="4" t="s">
         <v>263</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="253" spans="1:2" s="4" customFormat="1">
+    <row r="253" spans="1:2">
       <c r="A253" s="4" t="s">
         <v>200</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="254" spans="1:2" s="4" customFormat="1">
+    <row r="254" spans="1:2">
       <c r="A254" s="4" t="s">
         <v>225</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="255" spans="1:2" s="4" customFormat="1">
+    <row r="255" spans="1:2">
       <c r="A255" s="4" t="s">
         <v>264</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="256" spans="1:2" s="4" customFormat="1">
+    <row r="256" spans="1:2">
       <c r="A256" s="4" t="s">
         <v>272</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="257" spans="1:2" s="4" customFormat="1">
+    <row r="257" spans="1:2">
       <c r="A257" s="4" t="s">
         <v>211</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="258" spans="1:2" s="4" customFormat="1">
+    <row r="258" spans="1:2">
       <c r="A258" s="4" t="s">
         <v>270</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="259" spans="1:2" s="4" customFormat="1">
+    <row r="259" spans="1:2">
       <c r="A259" s="4" t="s">
         <v>195</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="260" spans="1:2" s="4" customFormat="1">
+    <row r="260" spans="1:2">
       <c r="A260" s="4" t="s">
         <v>210</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="261" spans="1:2" s="4" customFormat="1">
+    <row r="261" spans="1:2">
       <c r="A261" s="4" t="s">
         <v>269</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="262" spans="1:2" s="4" customFormat="1">
+    <row r="262" spans="1:2">
       <c r="A262" s="4" t="s">
         <v>206</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="263" spans="1:2" s="4" customFormat="1">
+    <row r="263" spans="1:2">
       <c r="A263" s="4" t="s">
         <v>207</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="264" spans="1:2" s="4" customFormat="1">
+    <row r="264" spans="1:2">
       <c r="A264" s="4" t="s">
         <v>216</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="1:2" s="4" customFormat="1">
+    <row r="265" spans="1:2">
       <c r="A265" s="4" t="s">
         <v>212</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="266" spans="1:2" s="4" customFormat="1">
+    <row r="266" spans="1:2">
       <c r="A266" s="4" t="s">
         <v>326</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:2" s="4" customFormat="1">
+    <row r="267" spans="1:2">
       <c r="A267" s="4" t="s">
         <v>327</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:2" s="4" customFormat="1">
+    <row r="268" spans="1:2">
       <c r="A268" s="4" t="s">
         <v>214</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:2" s="4" customFormat="1">
+    <row r="269" spans="1:2">
       <c r="A269" s="4" t="s">
         <v>209</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="1:2" s="4" customFormat="1">
+    <row r="270" spans="1:2">
       <c r="A270" s="4" t="s">
         <v>271</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="1:2" s="4" customFormat="1">
+    <row r="271" spans="1:2">
       <c r="A271" s="4" t="s">
         <v>219</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:2" s="4" customFormat="1">
+    <row r="272" spans="1:2">
       <c r="A272" s="4" t="s">
         <v>328</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:2" s="4" customFormat="1">
+    <row r="273" spans="1:2">
       <c r="A273" s="4" t="s">
         <v>307</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:2" s="4" customFormat="1">
+    <row r="274" spans="1:2">
       <c r="A274" s="4" t="s">
         <v>329</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:2" s="4" customFormat="1">
+    <row r="275" spans="1:2">
       <c r="A275" s="4" t="s">
         <v>330</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:2" s="4" customFormat="1">
+    <row r="276" spans="1:2">
       <c r="A276" s="4" t="s">
         <v>331</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:2" s="4" customFormat="1">
+    <row r="277" spans="1:2">
       <c r="A277" s="4" t="s">
         <v>332</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:2" s="4" customFormat="1">
+    <row r="278" spans="1:2">
       <c r="A278" s="4" t="s">
         <v>274</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:2" s="4" customFormat="1">
+    <row r="279" spans="1:2">
       <c r="A279" s="4" t="s">
         <v>220</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:2" s="4" customFormat="1">
+    <row r="280" spans="1:2">
       <c r="A280" s="4" t="s">
         <v>221</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:2" s="4" customFormat="1">
+    <row r="281" spans="1:2">
       <c r="A281" s="4" t="s">
         <v>222</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:2" s="4" customFormat="1">
+    <row r="282" spans="1:2">
       <c r="A282" s="4" t="s">
         <v>223</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:2" s="4" customFormat="1">
+    <row r="283" spans="1:2">
       <c r="A283" s="4" t="s">
         <v>227</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" s="4" customFormat="1">
+    <row r="284" spans="1:2">
       <c r="A284" s="4" t="s">
         <v>275</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" s="4" customFormat="1">
+    <row r="285" spans="1:2">
       <c r="A285" s="4" t="s">
         <v>224</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" s="4" customFormat="1">
+    <row r="286" spans="1:2">
       <c r="A286" s="4" t="s">
         <v>226</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" s="4" customFormat="1">
+    <row r="287" spans="1:2">
       <c r="A287" s="4" t="s">
         <v>228</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" s="4" customFormat="1">
+    <row r="288" spans="1:2">
       <c r="A288" s="4" t="s">
         <v>276</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" s="4" customFormat="1">
+    <row r="289" spans="1:2">
       <c r="A289" s="4" t="s">
         <v>278</v>
       </c>
@@ -4721,7 +4721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2071D5A-3040-A346-A1DC-D9F1D6D0B6D9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
